--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuyue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\okane-memo\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DAB9B-6763-45D5-9E25-8E67135A042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF83D6-C5DD-4A06-BC5B-D37940C63511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="684" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="22" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="©" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="prevWBS" localSheetId="0">WBS!$A1048576</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$B:$H</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WBS!$5:$5</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>1)</t>
   </si>
@@ -163,15 +164,7 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>确定项目</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>选定项目经理</t>
-  </si>
-  <si>
-    <t>起草项目章程</t>
-    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>召开项目启动会议</t>
@@ -245,40 +238,10 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>设计软件原型</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计图标</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计界面</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写需求用例文档</t>
-  </si>
-  <si>
-    <t>编写分析设计文档</t>
-  </si>
-  <si>
     <t>绘制ER图</t>
   </si>
   <si>
     <t>编写数据字典</t>
-  </si>
-  <si>
-    <t>编码实现</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析设计</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行界面编码</t>
-    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>级别</t>
@@ -382,6 +345,123 @@
   <si>
     <t>创建里程碑</t>
     <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>确定项目</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>识别项目干系人</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>评估项目可行性</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>起草项目章程</t>
+  </si>
+  <si>
+    <t>设计软件原型</t>
+  </si>
+  <si>
+    <t>设计图标</t>
+  </si>
+  <si>
+    <t>设计界面</t>
+  </si>
+  <si>
+    <t>进行界面编码</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>开展需求分析</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t>创建用例模型</t>
+  </si>
+  <si>
+    <t>3.1.1.2</t>
+  </si>
+  <si>
+    <t>创建需求管理计划</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>3.2.1.2</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
+    <t>3.2.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2.2</t>
+  </si>
+  <si>
+    <t>数据库表设计</t>
+  </si>
+  <si>
+    <t>3.2.2.3</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
   </si>
 </sst>
 </file>
@@ -1787,10 +1867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1930,7 @@
     </row>
     <row r="5" spans="2:11" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>19</v>
@@ -1859,16 +1939,16 @@
         <v>36</v>
       </c>
       <c r="E5" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>50</v>
-      </c>
       <c r="H5" s="65" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K5" s="34"/>
     </row>
@@ -1884,7 +1964,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F6" s="50">
         <v>44445</v>
@@ -1899,15 +1979,14 @@
       <c r="B7" s="58">
         <v>2</v>
       </c>
-      <c r="C7" s="60" t="str">
-        <f t="shared" ref="C7:C50" ca="1" si="0">IF(B7="","",IF(B7&gt;OFFSET(B7,-1,0,1,1),IF(OFFSET(C7,-1,0,1,1)="","1",OFFSET(C7,-1,0,1,1))&amp;REPT(".1",B7-MAX(OFFSET(B7,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C7,-1,0,1,1))),REPT("1.",B7-1)&amp;IFERROR(VALUE(OFFSET(C7,-1,0,1,1))+1,"1"),IF(B7=1,"",IFERROR(LEFT(OFFSET(C7,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C7,-1,0,1,1),".","^",B7-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C7,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C7,-1,0,1,1)))),(B7-1)*LEN(OFFSET(C7,-1,0,1,1))+1,LEN(OFFSET(C7,-1,0,1,1)))))+1)))</f>
-        <v>1.1</v>
+      <c r="C7" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F7" s="71">
         <v>44445</v>
@@ -1922,18 +2001,17 @@
       <c r="B8" s="58">
         <v>2</v>
       </c>
-      <c r="C8" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>40</v>
+      <c r="C8" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F8" s="71">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="G8" s="71">
         <v>44446</v>
@@ -1945,21 +2023,20 @@
       <c r="B9" s="58">
         <v>2</v>
       </c>
-      <c r="C9" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>41</v>
+      <c r="C9" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F9" s="71">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="G9" s="71">
-        <v>44452</v>
+        <v>44446</v>
       </c>
       <c r="H9" s="74"/>
       <c r="K9" s="35"/>
@@ -1968,90 +2045,82 @@
       <c r="B10" s="58">
         <v>2</v>
       </c>
-      <c r="C10" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>42</v>
+      <c r="C10" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F10" s="71">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="G10" s="71">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="H10" s="74"/>
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="58">
-        <v>1</v>
-      </c>
-      <c r="C11" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>43</v>
+      <c r="B11" s="58"/>
+      <c r="C11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F11" s="71">
-        <v>44459</v>
+        <v>44447</v>
       </c>
       <c r="G11" s="71">
-        <v>44482</v>
+        <v>44449</v>
       </c>
       <c r="H11" s="74"/>
       <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="58">
-        <v>2</v>
-      </c>
-      <c r="C12" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+      <c r="B12" s="58"/>
+      <c r="C12" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F12" s="71">
-        <v>44459</v>
+        <v>44447</v>
       </c>
       <c r="G12" s="71">
-        <v>44462</v>
+        <v>44454</v>
       </c>
       <c r="H12" s="74"/>
       <c r="K12" s="35"/>
     </row>
     <row r="13" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="58">
+        <v>1</v>
+      </c>
+      <c r="C13" s="60">
         <v>2</v>
       </c>
-      <c r="C13" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>45</v>
+      <c r="D13" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F13" s="71">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="G13" s="71">
-        <v>44460</v>
+        <v>44482</v>
       </c>
       <c r="H13" s="74"/>
       <c r="K13" s="35"/>
@@ -2061,20 +2130,20 @@
         <v>2</v>
       </c>
       <c r="C14" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3</v>
+        <f t="shared" ref="C14:C56" ca="1" si="0">IF(B14="","",IF(B14&gt;OFFSET(B14,-1,0,1,1),IF(OFFSET(C14,-1,0,1,1)="","1",OFFSET(C14,-1,0,1,1))&amp;REPT(".1",B14-MAX(OFFSET(B14,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C14,-1,0,1,1))),REPT("1.",B14-1)&amp;IFERROR(VALUE(OFFSET(C14,-1,0,1,1))+1,"1"),IF(B14=1,"",IFERROR(LEFT(OFFSET(C14,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C14,-1,0,1,1),".","^",B14-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C14,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C14,-1,0,1,1)))),(B14-1)*LEN(OFFSET(C14,-1,0,1,1))+1,LEN(OFFSET(C14,-1,0,1,1)))))+1)))</f>
+        <v>2.1</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F14" s="71">
-        <v>44463</v>
+        <v>44459</v>
       </c>
       <c r="G14" s="71">
-        <v>44483</v>
+        <v>44462</v>
       </c>
       <c r="H14" s="74"/>
       <c r="K14" s="35"/>
@@ -2085,65 +2154,65 @@
       </c>
       <c r="C15" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3.1</v>
+        <v>2.1.1</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F15" s="71">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="G15" s="71">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="H15" s="74"/>
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="60" t="str">
-        <f ca="1">IF(B16="","",IF(B16&gt;OFFSET(B16,-1,0,1,1),IF(OFFSET(C16,-1,0,1,1)="","1",OFFSET(C16,-1,0,1,1))&amp;REPT(".1",B16-MAX(OFFSET(B16,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C16,-1,0,1,1))),REPT("1.",B16-1)&amp;IFERROR(VALUE(OFFSET(C16,-1,0,1,1))+1,"1"),IF(B16=1,"",IFERROR(LEFT(OFFSET(C16,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C16,-1,0,1,1),".","^",B16-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C16,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C16,-1,0,1,1)))),(B16-1)*LEN(OFFSET(C16,-1,0,1,1))+1,LEN(OFFSET(C16,-1,0,1,1)))))+1)))</f>
-        <v>2.3.1.1</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F16" s="71">
         <v>44463</v>
       </c>
       <c r="G16" s="71">
-        <v>44466</v>
+        <v>44483</v>
       </c>
       <c r="H16" s="74"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="60" t="str">
-        <f ca="1">IF(B17="","",IF(B17&gt;OFFSET(B17,-1,0,1,1),IF(OFFSET(C17,-1,0,1,1)="","1",OFFSET(C17,-1,0,1,1))&amp;REPT(".1",B17-MAX(OFFSET(B17,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C17,-1,0,1,1))),REPT("1.",B17-1)&amp;IFERROR(VALUE(OFFSET(C17,-1,0,1,1))+1,"1"),IF(B17=1,"",IFERROR(LEFT(OFFSET(C17,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C17,-1,0,1,1),".","^",B17-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C17,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C17,-1,0,1,1)))),(B17-1)*LEN(OFFSET(C17,-1,0,1,1))+1,LEN(OFFSET(C17,-1,0,1,1)))))+1)))</f>
-        <v>2.3.1.2</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>88</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2.1</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F17" s="71">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="G17" s="71">
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="H17" s="74"/>
       <c r="K17" s="35"/>
@@ -2153,66 +2222,66 @@
         <v>4</v>
       </c>
       <c r="C18" s="60" t="str">
-        <f ca="1">IF(B18="","",IF(B18&gt;OFFSET(B18,-1,0,1,1),IF(OFFSET(C18,-1,0,1,1)="","1",OFFSET(C18,-1,0,1,1))&amp;REPT(".1",B18-MAX(OFFSET(B18,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C18,-1,0,1,1))),REPT("1.",B18-1)&amp;IFERROR(VALUE(OFFSET(C18,-1,0,1,1))+1,"1"),IF(B18=1,"",IFERROR(LEFT(OFFSET(C18,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C18,-1,0,1,1),".","^",B18-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C18,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C18,-1,0,1,1)))),(B18-1)*LEN(OFFSET(C18,-1,0,1,1))+1,LEN(OFFSET(C18,-1,0,1,1)))))+1)))</f>
-        <v>2.3.1.3</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>89</v>
+        <f t="shared" ref="C18:C25" ca="1" si="1">IF(B18="","",IF(B18&gt;OFFSET(B18,-1,0,1,1),IF(OFFSET(C18,-1,0,1,1)="","1",OFFSET(C18,-1,0,1,1))&amp;REPT(".1",B18-MAX(OFFSET(B18,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C18,-1,0,1,1))),REPT("1.",B18-1)&amp;IFERROR(VALUE(OFFSET(C18,-1,0,1,1))+1,"1"),IF(B18=1,"",IFERROR(LEFT(OFFSET(C18,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C18,-1,0,1,1),".","^",B18-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C18,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C18,-1,0,1,1)))),(B18-1)*LEN(OFFSET(C18,-1,0,1,1))+1,LEN(OFFSET(C18,-1,0,1,1)))))+1)))</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F18" s="71">
-        <v>44467</v>
+        <v>44463</v>
       </c>
       <c r="G18" s="71">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="H18" s="74"/>
       <c r="K18" s="35"/>
     </row>
     <row r="19" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="60" t="str">
-        <f ca="1">IF(B19="","",IF(B19&gt;OFFSET(B19,-1,0,1,1),IF(OFFSET(C19,-1,0,1,1)="","1",OFFSET(C19,-1,0,1,1))&amp;REPT(".1",B19-MAX(OFFSET(B19,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C19,-1,0,1,1))),REPT("1.",B19-1)&amp;IFERROR(VALUE(OFFSET(C19,-1,0,1,1))+1,"1"),IF(B19=1,"",IFERROR(LEFT(OFFSET(C19,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C19,-1,0,1,1),".","^",B19-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C19,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C19,-1,0,1,1)))),(B19-1)*LEN(OFFSET(C19,-1,0,1,1))+1,LEN(OFFSET(C19,-1,0,1,1)))))+1)))</f>
-        <v>2.3.1.3.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2.1.2</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F19" s="71">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="G19" s="71">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="H19" s="74"/>
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="60" t="str">
-        <f ca="1">IF(B20="","",IF(B20&gt;OFFSET(B20,-1,0,1,1),IF(OFFSET(C20,-1,0,1,1)="","1",OFFSET(C20,-1,0,1,1))&amp;REPT(".1",B20-MAX(OFFSET(B20,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C20,-1,0,1,1))),REPT("1.",B20-1)&amp;IFERROR(VALUE(OFFSET(C20,-1,0,1,1))+1,"1"),IF(B20=1,"",IFERROR(LEFT(OFFSET(C20,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C20,-1,0,1,1),".","^",B20-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C20,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C20,-1,0,1,1)))),(B20-1)*LEN(OFFSET(C20,-1,0,1,1))+1,LEN(OFFSET(C20,-1,0,1,1)))))+1)))</f>
-        <v>2.3.2</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>52</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2.1.3</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F20" s="71">
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="G20" s="71">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="H20" s="74"/>
       <c r="K20" s="35"/>
@@ -2222,43 +2291,43 @@
         <v>4</v>
       </c>
       <c r="C21" s="60" t="str">
-        <f ca="1">IF(B21="","",IF(B21&gt;OFFSET(B21,-1,0,1,1),IF(OFFSET(C21,-1,0,1,1)="","1",OFFSET(C21,-1,0,1,1))&amp;REPT(".1",B21-MAX(OFFSET(B21,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C21,-1,0,1,1))),REPT("1.",B21-1)&amp;IFERROR(VALUE(OFFSET(C21,-1,0,1,1))+1,"1"),IF(B21=1,"",IFERROR(LEFT(OFFSET(C21,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C21,-1,0,1,1),".","^",B21-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C21,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C21,-1,0,1,1)))),(B21-1)*LEN(OFFSET(C21,-1,0,1,1))+1,LEN(OFFSET(C21,-1,0,1,1)))))+1)))</f>
-        <v>2.3.2.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2.1.4</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F21" s="71">
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="G21" s="71">
-        <v>44473</v>
+        <v>44469</v>
       </c>
       <c r="H21" s="74"/>
       <c r="K21" s="35"/>
     </row>
     <row r="22" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="60" t="str">
-        <f ca="1">IF(B22="","",IF(B22&gt;OFFSET(B22,-1,0,1,1),IF(OFFSET(C22,-1,0,1,1)="","1",OFFSET(C22,-1,0,1,1))&amp;REPT(".1",B22-MAX(OFFSET(B22,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C22,-1,0,1,1))),REPT("1.",B22-1)&amp;IFERROR(VALUE(OFFSET(C22,-1,0,1,1))+1,"1"),IF(B22=1,"",IFERROR(LEFT(OFFSET(C22,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C22,-1,0,1,1),".","^",B22-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C22,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C22,-1,0,1,1)))),(B22-1)*LEN(OFFSET(C22,-1,0,1,1))+1,LEN(OFFSET(C22,-1,0,1,1)))))+1)))</f>
-        <v>2.3.2.2</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>92</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2.2</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F22" s="71">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="G22" s="71">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="H22" s="74"/>
       <c r="K22" s="35"/>
@@ -2268,20 +2337,20 @@
         <v>4</v>
       </c>
       <c r="C23" s="60" t="str">
-        <f ca="1">IF(B23="","",IF(B23&gt;OFFSET(B23,-1,0,1,1),IF(OFFSET(C23,-1,0,1,1)="","1",OFFSET(C23,-1,0,1,1))&amp;REPT(".1",B23-MAX(OFFSET(B23,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C23,-1,0,1,1))),REPT("1.",B23-1)&amp;IFERROR(VALUE(OFFSET(C23,-1,0,1,1))+1,"1"),IF(B23=1,"",IFERROR(LEFT(OFFSET(C23,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C23,-1,0,1,1),".","^",B23-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C23,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C23,-1,0,1,1)))),(B23-1)*LEN(OFFSET(C23,-1,0,1,1))+1,LEN(OFFSET(C23,-1,0,1,1)))))+1)))</f>
-        <v>2.3.2.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2.2.1</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E23" s="78" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F23" s="71">
+        <v>44470</v>
+      </c>
+      <c r="G23" s="71">
         <v>44473</v>
-      </c>
-      <c r="G23" s="71">
-        <v>44475</v>
       </c>
       <c r="H23" s="74"/>
       <c r="K23" s="35"/>
@@ -2291,66 +2360,66 @@
         <v>4</v>
       </c>
       <c r="C24" s="60" t="str">
-        <f t="shared" ref="C24:C30" ca="1" si="1">IF(B24="","",IF(B24&gt;OFFSET(B24,-1,0,1,1),IF(OFFSET(C24,-1,0,1,1)="","1",OFFSET(C24,-1,0,1,1))&amp;REPT(".1",B24-MAX(OFFSET(B24,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C24,-1,0,1,1))),REPT("1.",B24-1)&amp;IFERROR(VALUE(OFFSET(C24,-1,0,1,1))+1,"1"),IF(B24=1,"",IFERROR(LEFT(OFFSET(C24,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C24,-1,0,1,1),".","^",B24-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C24,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C24,-1,0,1,1)))),(B24-1)*LEN(OFFSET(C24,-1,0,1,1))+1,LEN(OFFSET(C24,-1,0,1,1)))))+1)))</f>
-        <v>2.3.2.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2.2.2</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F24" s="71">
+        <v>44473</v>
+      </c>
+      <c r="G24" s="71">
         <v>44474</v>
-      </c>
-      <c r="G24" s="71">
-        <v>44475</v>
       </c>
       <c r="H24" s="74"/>
       <c r="K24" s="35"/>
     </row>
     <row r="25" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3.3</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>55</v>
+        <v>2.2.2.3</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>51</v>
       </c>
       <c r="E25" s="78" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F25" s="71">
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="G25" s="71">
-        <v>44479</v>
+        <v>44475</v>
       </c>
       <c r="H25" s="74"/>
       <c r="K25" s="35"/>
     </row>
     <row r="26" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3.4</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>56</v>
+        <f t="shared" ref="C26:C32" ca="1" si="2">IF(B26="","",IF(B26&gt;OFFSET(B26,-1,0,1,1),IF(OFFSET(C26,-1,0,1,1)="","1",OFFSET(C26,-1,0,1,1))&amp;REPT(".1",B26-MAX(OFFSET(B26,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C26,-1,0,1,1))),REPT("1.",B26-1)&amp;IFERROR(VALUE(OFFSET(C26,-1,0,1,1))+1,"1"),IF(B26=1,"",IFERROR(LEFT(OFFSET(C26,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C26,-1,0,1,1),".","^",B26-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C26,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C26,-1,0,1,1)))),(B26-1)*LEN(OFFSET(C26,-1,0,1,1))+1,LEN(OFFSET(C26,-1,0,1,1)))))+1)))</f>
+        <v>2.2.2.4</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>52</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F26" s="71">
-        <v>44463</v>
+        <v>44474</v>
       </c>
       <c r="G26" s="71">
-        <v>44467</v>
+        <v>44475</v>
       </c>
       <c r="H26" s="74"/>
       <c r="K26" s="35"/>
@@ -2360,20 +2429,20 @@
         <v>3</v>
       </c>
       <c r="C27" s="60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.3</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E27" s="78" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F27" s="71">
         <v>44476</v>
       </c>
       <c r="G27" s="71">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="H27" s="74"/>
       <c r="K27" s="35"/>
@@ -2383,20 +2452,20 @@
         <v>3</v>
       </c>
       <c r="C28" s="60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3.6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.4</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" s="78" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F28" s="71">
-        <v>44481</v>
+        <v>44463</v>
       </c>
       <c r="G28" s="71">
-        <v>44483</v>
+        <v>44467</v>
       </c>
       <c r="H28" s="74"/>
       <c r="K28" s="35"/>
@@ -2406,17 +2475,17 @@
         <v>3</v>
       </c>
       <c r="C29" s="60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3.7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.5</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F29" s="71">
-        <v>44480</v>
+        <v>44476</v>
       </c>
       <c r="G29" s="71">
         <v>44480</v>
@@ -2429,506 +2498,623 @@
         <v>3</v>
       </c>
       <c r="C30" s="60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3.8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.6</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E30" s="78" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F30" s="71">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="G30" s="71">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="H30" s="74"/>
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="58">
+        <v>3</v>
+      </c>
+      <c r="C31" s="60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.7</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="71">
+        <v>44480</v>
+      </c>
+      <c r="G31" s="71">
+        <v>44480</v>
+      </c>
+      <c r="H31" s="74"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="58">
+        <v>3</v>
+      </c>
+      <c r="C32" s="60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2.8</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="71">
+        <v>44480</v>
+      </c>
+      <c r="G32" s="71">
+        <v>44482</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="58">
         <v>1</v>
       </c>
-      <c r="C31" s="60" t="str">
+      <c r="C33" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="71">
+      <c r="D33" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="71">
         <v>44480</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G33" s="71">
         <v>44517</v>
       </c>
-      <c r="H31" s="74"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="58">
+      <c r="H33" s="74"/>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58">
         <v>2</v>
       </c>
-      <c r="C32" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="71">
+      <c r="C34" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="71">
         <v>44480</v>
       </c>
-      <c r="G32" s="71">
-        <v>44495</v>
-      </c>
-      <c r="H32" s="74"/>
-      <c r="K32" s="35"/>
-    </row>
-    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="58">
+      <c r="G34" s="71">
+        <v>44487</v>
+      </c>
+      <c r="H34" s="74"/>
+      <c r="K34" s="35"/>
+    </row>
+    <row r="35" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="58">
         <v>3</v>
       </c>
-      <c r="C33" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.1</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="71">
-        <v>44481</v>
-      </c>
-      <c r="G33" s="71">
+      <c r="C35" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="71">
+        <v>44480</v>
+      </c>
+      <c r="G35" s="71">
         <v>44483</v>
       </c>
-      <c r="H33" s="74"/>
-    </row>
-    <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="58">
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="58">
         <v>4</v>
       </c>
-      <c r="C34" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.1.1</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="71">
-        <v>44481</v>
-      </c>
-      <c r="G34" s="71">
-        <v>44483</v>
-      </c>
-      <c r="H34" s="74"/>
-    </row>
-    <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58">
-        <v>4</v>
-      </c>
-      <c r="C35" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.1.2</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="71">
-        <v>44481</v>
-      </c>
-      <c r="G35" s="71">
-        <v>44484</v>
-      </c>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58">
-        <v>3</v>
-      </c>
-      <c r="C36" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.2</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>65</v>
+      <c r="C36" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>102</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F36" s="71">
         <v>44484</v>
       </c>
       <c r="G36" s="71">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="H36" s="74"/>
     </row>
-    <row r="37" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="58">
-        <v>3</v>
-      </c>
-      <c r="C37" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.3</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="E37" s="78" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F37" s="71">
-        <v>44489</v>
+        <v>44484</v>
       </c>
       <c r="G37" s="71">
-        <v>44491</v>
+        <v>44484</v>
       </c>
       <c r="H37" s="74"/>
     </row>
-    <row r="38" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1.3.1</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>67</v>
+        <v>3.2</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>105</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F38" s="71">
-        <v>44490</v>
+        <v>44488</v>
       </c>
       <c r="G38" s="71">
-        <v>44490</v>
+        <v>44503</v>
       </c>
       <c r="H38" s="74"/>
     </row>
-    <row r="39" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58">
-        <v>4</v>
-      </c>
-      <c r="C39" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1.3.2</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>68</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="E39" s="78" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F39" s="71">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="G39" s="71">
         <v>44495</v>
       </c>
       <c r="H39" s="74"/>
     </row>
-    <row r="40" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="58">
+        <v>4</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="71">
+        <v>44488</v>
+      </c>
+      <c r="G40" s="71">
+        <v>44490</v>
+      </c>
+      <c r="H40" s="74"/>
+    </row>
+    <row r="41" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="58">
+        <v>4</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="71">
+        <v>44489</v>
+      </c>
+      <c r="G41" s="71">
+        <v>44495</v>
+      </c>
+      <c r="H41" s="74"/>
+    </row>
+    <row r="42" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="58">
         <v>2</v>
       </c>
-      <c r="C40" s="60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="71">
-        <v>44496</v>
-      </c>
-      <c r="G40" s="71">
-        <v>44517</v>
-      </c>
-      <c r="H40" s="74"/>
-    </row>
-    <row r="41" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="58">
-        <v>3</v>
-      </c>
-      <c r="C41" s="60" t="str">
-        <f ca="1">IF(B41="","",IF(B41&gt;OFFSET(B41,-1,0,1,1),IF(OFFSET(C41,-1,0,1,1)="","1",OFFSET(C41,-1,0,1,1))&amp;REPT(".1",B41-MAX(OFFSET(B41,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C41,-1,0,1,1))),REPT("1.",B41-1)&amp;IFERROR(VALUE(OFFSET(C41,-1,0,1,1))+1,"1"),IF(B41=1,"",IFERROR(LEFT(OFFSET(C41,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C41,-1,0,1,1),".","^",B41-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C41,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C41,-1,0,1,1)))),(B41-1)*LEN(OFFSET(C41,-1,0,1,1))+1,LEN(OFFSET(C41,-1,0,1,1)))))+1)))</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="71">
-        <v>44496</v>
-      </c>
-      <c r="G41" s="71">
-        <v>44501</v>
-      </c>
-      <c r="H41" s="74"/>
-    </row>
-    <row r="42" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="58">
-        <v>3</v>
-      </c>
-      <c r="C42" s="60" t="str">
-        <f t="shared" ref="C42:C49" ca="1" si="2">IF(B42="","",IF(B42&gt;OFFSET(B42,-1,0,1,1),IF(OFFSET(C42,-1,0,1,1)="","1",OFFSET(C42,-1,0,1,1))&amp;REPT(".1",B42-MAX(OFFSET(B42,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C42,-1,0,1,1))),REPT("1.",B42-1)&amp;IFERROR(VALUE(OFFSET(C42,-1,0,1,1))+1,"1"),IF(B42=1,"",IFERROR(LEFT(OFFSET(C42,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C42,-1,0,1,1),".","^",B42-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C42,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C42,-1,0,1,1)))),(B42-1)*LEN(OFFSET(C42,-1,0,1,1))+1,LEN(OFFSET(C42,-1,0,1,1)))))+1)))</f>
-        <v>3.2.2</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>73</v>
+      <c r="C42" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="E42" s="78" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F42" s="71">
-        <v>44502</v>
+        <v>44489</v>
       </c>
       <c r="G42" s="71">
-        <v>44504</v>
+        <v>44491</v>
       </c>
       <c r="H42" s="74"/>
     </row>
-    <row r="43" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="58">
         <v>3</v>
       </c>
-      <c r="C43" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.2.3</v>
+      <c r="C43" s="60" t="s">
+        <v>111</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E43" s="78" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F43" s="71">
-        <v>44505</v>
+        <v>44490</v>
       </c>
       <c r="G43" s="71">
-        <v>44508</v>
+        <v>44490</v>
       </c>
       <c r="H43" s="74"/>
     </row>
-    <row r="44" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="58">
         <v>3</v>
       </c>
-      <c r="C44" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.2.4</v>
+      <c r="C44" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="E44" s="78" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F44" s="71">
-        <v>44508</v>
+        <v>44491</v>
       </c>
       <c r="G44" s="71">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="H44" s="74"/>
     </row>
-    <row r="45" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58">
         <v>3</v>
       </c>
-      <c r="C45" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.2.5</v>
+      <c r="C45" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="D45" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="78" t="s">
-        <v>84</v>
-      </c>
       <c r="F45" s="71">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="G45" s="71">
+        <v>44495</v>
+      </c>
+      <c r="H45" s="74"/>
+    </row>
+    <row r="46" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="58">
+        <v>2</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="71">
+        <v>44496</v>
+      </c>
+      <c r="G46" s="71">
         <v>44517</v>
       </c>
-      <c r="H45" s="74"/>
-    </row>
-    <row r="46" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="58">
-        <v>1</v>
-      </c>
-      <c r="C46" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="71">
-        <v>44518</v>
-      </c>
-      <c r="G46" s="71">
-        <v>44526</v>
-      </c>
       <c r="H46" s="74"/>
     </row>
-    <row r="47" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="58">
-        <v>2</v>
-      </c>
-      <c r="C47" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.1</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="E47" s="78" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F47" s="71">
-        <v>44518</v>
+        <v>44496</v>
       </c>
       <c r="G47" s="71">
-        <v>44518</v>
+        <v>44501</v>
       </c>
       <c r="H47" s="74"/>
     </row>
-    <row r="48" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="58">
-        <v>2</v>
-      </c>
-      <c r="C48" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="E48" s="78" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F48" s="71">
-        <v>44518</v>
+        <v>44502</v>
       </c>
       <c r="G48" s="71">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="H48" s="74"/>
     </row>
     <row r="49" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="58">
+        <v>3</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="71">
+        <v>44505</v>
+      </c>
+      <c r="G49" s="71">
+        <v>44508</v>
+      </c>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="58">
+        <v>3</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="71">
+        <v>44508</v>
+      </c>
+      <c r="G50" s="71">
+        <v>44512</v>
+      </c>
+      <c r="H50" s="74"/>
+    </row>
+    <row r="51" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="58">
+        <v>3</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="71">
+        <v>44512</v>
+      </c>
+      <c r="G51" s="71">
+        <v>44517</v>
+      </c>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="58">
+        <v>1</v>
+      </c>
+      <c r="C52" s="60" t="str">
+        <f t="shared" ref="C50:C55" ca="1" si="3">IF(B52="","",IF(B52&gt;OFFSET(B52,-1,0,1,1),IF(OFFSET(C52,-1,0,1,1)="","1",OFFSET(C52,-1,0,1,1))&amp;REPT(".1",B52-MAX(OFFSET(B52,-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(C52,-1,0,1,1))),REPT("1.",B52-1)&amp;IFERROR(VALUE(OFFSET(C52,-1,0,1,1))+1,"1"),IF(B52=1,"",IFERROR(LEFT(OFFSET(C52,-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(C52,-1,0,1,1),".","^",B52-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(C52,-1,0,1,1),".",REPT(" ",LEN(OFFSET(C52,-1,0,1,1)))),(B52-1)*LEN(OFFSET(C52,-1,0,1,1))+1,LEN(OFFSET(C52,-1,0,1,1)))))+1)))</f>
+        <v>4</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="71">
+        <v>44518</v>
+      </c>
+      <c r="G52" s="71">
+        <v>44526</v>
+      </c>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="60" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="C53" s="60" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="71">
+        <v>44518</v>
+      </c>
+      <c r="G53" s="71">
+        <v>44518</v>
+      </c>
+      <c r="H53" s="74"/>
+    </row>
+    <row r="54" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="58">
+        <v>2</v>
+      </c>
+      <c r="C54" s="60" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="71">
+        <v>44519</v>
+      </c>
+      <c r="G54" s="71">
+        <v>44522</v>
+      </c>
+      <c r="H54" s="74"/>
+    </row>
+    <row r="55" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="58">
+        <v>2</v>
+      </c>
+      <c r="C55" s="60" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>4.3</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="71">
+      <c r="D55" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="71">
+        <v>44519</v>
+      </c>
+      <c r="G55" s="71">
         <v>44522</v>
       </c>
-      <c r="G49" s="71">
-        <v>44526</v>
-      </c>
-      <c r="H49" s="74"/>
-    </row>
-    <row r="50" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="67"/>
-      <c r="C50" s="61" t="str">
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="67"/>
+      <c r="C56" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="75"/>
-      <c r="K50" s="66"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="75"/>
+      <c r="K56" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="B17:E18 B19:C19 E19 C14:C21 B23:B30 D26:H30 B41:C41 E41:H41 B42:H45 C47:C49 B50:H50 B13:E13 H13 D23:E25 H23:H25 H17:H19 F13:G25 B6:H12 B31:H40 B46:E46 H46">
+  <conditionalFormatting sqref="B19:E20 B21:C21 E21 C16:C23 B25:B32 D28:H32 B43:C43 E43:H43 B44:H51 C53:C55 B56:H56 B15:E15 H15 D25:E27 H25:H27 H19:H21 F15:G27 B6:H14 B33:H42 B52:E52 H52">
     <cfRule type="expression" dxfId="8" priority="13">
       <formula>($B6=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B16 D14:E16 H14:H16">
+  <conditionalFormatting sqref="B16:B18 D16:E18 H16:H18">
     <cfRule type="expression" dxfId="7" priority="10">
-      <formula>($B14=1)</formula>
+      <formula>($B16=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21 D20:E21 H20:H21">
+  <conditionalFormatting sqref="B22:B23 D22:E23 H22:H23">
     <cfRule type="expression" dxfId="6" priority="9">
-      <formula>($B20=1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:E22 C23:C30 H22">
-    <cfRule type="expression" dxfId="5" priority="8">
       <formula>($B22=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>($B19=1)</formula>
+  <conditionalFormatting sqref="B24:E24 C25:C32 H24">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>($B24=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B49 D47:H49">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>($B47=1)</formula>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>($B21=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>($B41=1)</formula>
+  <conditionalFormatting sqref="B53:B55 D53:H55">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>($B53=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>($B46=1)</formula>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>($B43=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>($B52=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>($B46=1)</formula>
+      <formula>($B52=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B6:B50" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B6:B56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2941,6 +3127,9 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;8&amp;K01+047WBS Template © 2017 Vertex42 LLC&amp;R&amp;8&amp;K01+047https://www.vertex42.com/ExcelTemplates/work-breakdown-structure.html</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="C11:C12 C7 C34 C46" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
